--- a/src/test/resources/addSelection/addSelection.xlsx
+++ b/src/test/resources/addSelection/addSelection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addselection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE80B1A-0BFA-4E39-8860-15A4A556EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B59529-54FB-403D-BEAC-0A39080490E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>option</t>
+      <t>target</t>
     </r>
     <r>
       <rPr>
@@ -500,6 +500,92 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
+      <t>"xpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>//*[@id='issue_custom_field_values_31']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
       <t>"${company</t>
     </r>
     <r>
@@ -546,7 +632,27 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>"option"</t>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -587,92 +693,6 @@
         <charset val="136"/>
       </rPr>
       <t>}"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"xpath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>//*[@id='issue_custom_field_values_31']"</t>
     </r>
     <r>
       <rPr>
@@ -1141,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1230,10 +1250,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>13</v>
@@ -1263,10 +1283,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>

--- a/src/test/resources/addSelection/addSelection.xlsx
+++ b/src/test/resources/addSelection/addSelection.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B59529-54FB-403D-BEAC-0A39080490E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29EFB6-152D-4FE7-A49E-2AEB37E100E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -81,52 +84,6 @@
   </si>
   <si>
     <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>xpath</t>
     </r>
     <r>
@@ -153,131 +110,6 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>"file"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"C:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>xihu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Desktop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2.json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
       <t>"url"</t>
     </r>
     <r>
@@ -353,6 +185,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>setWindowSize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>{</t>
     </r>
@@ -364,7 +200,483 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>"skip"</t>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"xpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>//*[@id='issue_custom_field_values_31']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"${company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"${company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"https://task.hugang.io/issues/1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>xihu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"value"</t>
     </r>
     <r>
       <rPr>
@@ -385,314 +697,6 @@
         <charset val="128"/>
       </rPr>
       <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"url"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"https://task.hugang.io/issues/1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>setWindowSize</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"xpath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>//*[@id='issue_custom_field_values_31']"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"${company</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"${company</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}"</t>
     </r>
     <r>
       <rPr>
@@ -711,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -779,6 +783,13 @@
       <sz val="11"/>
       <color rgb="FF871094"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -860,6 +871,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>586740</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>281940</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D46E7D-867F-4FE4-A792-DE217FC69547}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="45720" rIns="36576" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="游ゴシック"/>
+                  <a:ea typeface="游ゴシック"/>
+                </a:rPr>
+                <a:t>Run</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="sheet1"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="run"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,31 +1266,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="27.375" customWidth="1"/>
+    <col min="11" max="11" width="27.3984375" customWidth="1"/>
     <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1223,13 +1332,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="68.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="64.8" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1244,28 +1353,28 @@
         <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1279,14 +1388,14 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -1299,5 +1408,35 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!_xludf.run">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>586740</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>281940</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/src/test/resources/addSelection/addSelection.xlsx
+++ b/src/test/resources/addSelection/addSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\addSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F0AE2-6C93-4767-8E49-46E6A74647CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192D813-AB67-4772-90F4-5BAF3E2F878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>parrot</t>
   </si>
   <si>
-    <t>{"url": "http://localhost:9001/addSelection/", "skip": false}</t>
+    <t>{"url": "http://localhost:9001/removeSelection/", "skip": false}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,22 +565,22 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.25" style="1"/>
+    <col min="8" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
